--- a/OnBoard/output/trust/catch/Catch_Trust_18.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_18.xlsx
@@ -1843,7 +1843,7 @@
         <v>0.074</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I36">
         <v>4.3392</v>
@@ -1884,7 +1884,7 @@
         <v>1.15</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I37">
         <v>4.3392</v>
@@ -1925,7 +1925,7 @@
         <v>0.042</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I38">
         <v>4.3392</v>
@@ -2089,7 +2089,7 @@
         <v>0.011</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>4.3392</v>
@@ -2212,7 +2212,7 @@
         <v>0.429</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I45">
         <v>4.3392</v>
@@ -2376,7 +2376,7 @@
         <v>0.358</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I49">
         <v>4.3392</v>
